--- a/Tsvetomir/Homework#3/Test_Case_Onlinebills.xlsx
+++ b/Tsvetomir/Homework#3/Test_Case_Onlinebills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -339,8 +339,77 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>When a user provides a blank password, a red colored message: ”</t>
+    <t>Blank password error message</t>
+  </si>
+  <si>
+    <t>Blank username error message - negative</t>
+  </si>
+  <si>
+    <r>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> username  and Password: TestUser1</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Leave the username field blank.</t>
+  </si>
+  <si>
+    <t>2. Write the password: TestUser1</t>
+  </si>
+  <si>
+    <t>The password will be shown in the field as dots.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Create transaction, a confirmation window with OK and Cancel buttons appears</t>
+  </si>
+  <si>
+    <t>Create transaction - confirmation window</t>
+  </si>
+  <si>
+    <t>succesfull login to www.onlinebillsExercise.com</t>
+  </si>
+  <si>
+    <t>The password will be shown like dots in the field.</t>
+  </si>
+  <si>
+    <t>You`ll be redirected to the Homepage</t>
+  </si>
+  <si>
+    <t>Wrong password error message - negative</t>
+  </si>
+  <si>
+    <t>Wrong username error message  - negative</t>
+  </si>
+  <si>
+    <t>2. Click "Ok" button</t>
+  </si>
+  <si>
+    <t>1. Click "Create transaction"  button</t>
+  </si>
+  <si>
+    <t>Appear green massage "The transaction is completed"</t>
+  </si>
+  <si>
+    <r>
+      <t>When a user provides a blank username, a red colored message: ”</t>
     </r>
     <r>
       <rPr>
@@ -362,18 +431,15 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>” appears</t>
-    </r>
-  </si>
-  <si>
-    <t>Blank password error message</t>
-  </si>
-  <si>
-    <t>Blank username error message - negative</t>
-  </si>
-  <si>
-    <r>
-      <t>When a user provides a blank username, a red colored message: ”</t>
+      <t>” appears.</t>
+    </r>
+  </si>
+  <si>
+    <t>Confirmation window appears with Okay and Cancel buttons.</t>
+  </si>
+  <si>
+    <r>
+      <t>When user provides a blank password, a red colored message appears: ”</t>
     </r>
     <r>
       <rPr>
@@ -395,69 +461,15 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>” appears</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> username  and Password: TestUser1</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Leave the username field blank.</t>
-  </si>
-  <si>
-    <t>2. Write the password: TestUser1</t>
-  </si>
-  <si>
-    <t>The password will be shown in the field as dots.</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
-    <t>Create transaction, a confirmation window with OK and Cancel buttons appears</t>
-  </si>
-  <si>
-    <t>Create transaction - confirmation window</t>
-  </si>
-  <si>
-    <t>succesfull login to www.onlinebillsExercise.com</t>
-  </si>
-  <si>
-    <t>The password will be shown like dots in the field.</t>
-  </si>
-  <si>
-    <t>You`ll be redirected to the Homepage</t>
-  </si>
-  <si>
-    <t>Wrong password error message - negative</t>
-  </si>
-  <si>
-    <t>Wrong username error message  - negative</t>
+      <t>” .</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +576,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -610,14 +636,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,6 +687,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,7 +815,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7267575" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -834,7 +866,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7410450" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -880,7 +912,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7410450" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -931,7 +963,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7200900" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -977,7 +1009,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7200900" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1023,7 +1055,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7200900" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1074,7 +1106,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7210425" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1120,7 +1152,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7210425" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1166,7 +1198,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7210425" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,7 +1244,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7210425" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1263,7 +1295,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7305675" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1309,7 +1341,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7305675" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1355,7 +1387,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7305675" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1401,7 +1433,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7305675" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1447,7 +1479,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8181975" y="95250"/>
+          <a:off x="7305675" y="95250"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,119 +1850,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1956,132 +1988,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="114.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="41.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>66</v>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2104,132 +2136,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="114.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="43.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="104.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2252,132 +2284,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="40.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="116.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2400,132 +2432,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="40.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="126" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2548,120 +2580,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="129.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="42.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75">
+      <c r="A13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2673,8 +2715,9 @@
     <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2682,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:IV65536"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2695,91 +2738,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="35"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2787,10 +2830,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
